--- a/IssueTrackingSystem/protocol/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/IssueTrackingSystem/protocol/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>JS-SPA-Self-Evaluation-Protocol</t>
   </si>
@@ -83,9 +83,15 @@
     <t>User Dashboard</t>
   </si>
   <si>
+    <t>Tuk ima dosta da se napasva</t>
+  </si>
+  <si>
     <t>Project Page</t>
   </si>
   <si>
+    <t>Малко има по дизайна да се пипне</t>
+  </si>
+  <si>
     <t>Edit Project Page</t>
   </si>
   <si>
@@ -110,7 +116,13 @@
     <t>Advanced Options (up to 80)</t>
   </si>
   <si>
+    <t>Ima oshte rabota</t>
+  </si>
+  <si>
     <t>Filtering issues in the Project Page</t>
+  </si>
+  <si>
+    <t>Pokazvat se samo za proekta</t>
   </si>
   <si>
     <t>Administrator</t>
@@ -430,7 +442,7 @@
   <dimension ref="B1:E32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -599,21 +611,27 @@
       <c r="D15" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="C16" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="D16" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13" t="n">
@@ -623,7 +641,7 @@
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="n">
@@ -633,7 +651,7 @@
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C19" s="13" t="n">
         <v>15</v>
@@ -645,7 +663,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="n">
@@ -655,7 +673,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="13" t="n">
         <v>10</v>
@@ -667,7 +685,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C22" s="13" t="n">
         <v>5</v>
@@ -679,7 +697,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="n">
@@ -689,7 +707,7 @@
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -697,27 +715,35 @@
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="C25" s="16" t="n">
+        <v>20</v>
+      </c>
       <c r="D25" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="16"/>
+        <v>34</v>
+      </c>
+      <c r="C26" s="16" t="n">
+        <v>20</v>
+      </c>
       <c r="D26" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="16" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -725,7 +751,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16" t="n">
@@ -735,7 +761,7 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="16" t="n">
@@ -745,7 +771,7 @@
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="n">
@@ -755,7 +781,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="n">
@@ -765,11 +791,11 @@
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C32" s="19" t="n">
         <f aca="false">SUM(C6:C31)</f>
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="D32" s="19" t="n">
         <v>330</v>

--- a/IssueTrackingSystem/protocol/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/IssueTrackingSystem/protocol/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>JS-SPA-Self-Evaluation-Protocol</t>
   </si>
@@ -98,6 +98,9 @@
     <t>Add Issue</t>
   </si>
   <si>
+    <t>Trqbva da go probvam kato admin ili lead</t>
+  </si>
+  <si>
     <t>Issue page</t>
   </si>
   <si>
@@ -132,6 +135,9 @@
   </si>
   <si>
     <t>-&gt;Projects</t>
+  </si>
+  <si>
+    <t>ima za doopravqne</t>
   </si>
   <si>
     <r>
@@ -441,8 +447,8 @@
   </sheetPr>
   <dimension ref="B1:E32"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -524,7 +530,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>13</v>
@@ -538,7 +544,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>13</v>
@@ -639,19 +645,23 @@
       </c>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="13"/>
+      <c r="C18" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="D18" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="13" t="n">
         <v>15</v>
@@ -663,7 +673,7 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13" t="n">
@@ -673,7 +683,7 @@
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="13" t="n">
         <v>10</v>
@@ -685,7 +695,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="13" t="n">
         <v>5</v>
@@ -697,7 +707,7 @@
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="n">
@@ -707,7 +717,7 @@
     </row>
     <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -715,7 +725,7 @@
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" s="16" t="n">
         <v>20</v>
@@ -724,12 +734,12 @@
         <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" s="16" t="n">
         <v>20</v>
@@ -738,12 +748,12 @@
         <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -751,7 +761,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16" t="n">
@@ -761,19 +771,25 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="16"/>
+        <v>39</v>
+      </c>
+      <c r="C29" s="16" t="n">
+        <v>10</v>
+      </c>
       <c r="D29" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="16" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="16"/>
+        <v>41</v>
+      </c>
+      <c r="C30" s="16" t="n">
+        <v>15</v>
+      </c>
       <c r="D30" s="16" t="n">
         <v>15</v>
       </c>
@@ -781,7 +797,7 @@
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="n">
@@ -791,11 +807,11 @@
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C32" s="19" t="n">
         <f aca="false">SUM(C6:C31)</f>
-        <v>323</v>
+        <v>380</v>
       </c>
       <c r="D32" s="19" t="n">
         <v>330</v>

--- a/IssueTrackingSystem/protocol/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/IssueTrackingSystem/protocol/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>JS-SPA-Self-Evaluation-Protocol</t>
   </si>
@@ -71,6 +71,9 @@
     <t>Web Design</t>
   </si>
   <si>
+    <t>Complete</t>
+  </si>
+  <si>
     <t>AngularJS Project Structure</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
     <t>Project Page</t>
   </si>
   <si>
-    <t>Малко има по дизайна да се пипне</t>
-  </si>
-  <si>
     <t>Edit Project Page</t>
   </si>
   <si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Filtering issues in the Project Page</t>
-  </si>
-  <si>
-    <t>Pokazvat se samo za proekta</t>
   </si>
   <si>
     <t>Administrator</t>
@@ -448,7 +445,7 @@
   <dimension ref="B1:E32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -530,7 +527,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>13</v>
@@ -544,7 +541,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>13</v>
@@ -571,11 +568,13 @@
       <c r="D11" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="n">
         <v>25</v>
@@ -583,11 +582,13 @@
       <c r="D12" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" s="13" t="n">
         <v>5</v>
@@ -595,11 +596,13 @@
       <c r="D13" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="n">
         <v>10</v>
@@ -607,23 +610,25 @@
       <c r="D14" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="n">
         <v>10</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="13" t="n">
         <v>10</v>
@@ -632,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,7 +696,9 @@
       <c r="D21" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="12" t="s">
@@ -703,7 +710,9 @@
       <c r="D22" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="12" t="s">
@@ -748,12 +757,12 @@
         <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -761,7 +770,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="16" t="n">
@@ -771,21 +780,21 @@
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="D29" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="C29" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="D29" s="16" t="n">
-        <v>10</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="16" t="n">
         <v>15</v>
@@ -793,11 +802,13 @@
       <c r="D30" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="E30" s="16"/>
+      <c r="E30" s="16" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="16" t="n">
@@ -807,11 +818,11 @@
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="19" t="n">
         <f aca="false">SUM(C6:C31)</f>
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="D32" s="19" t="n">
         <v>330</v>
